--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Pf4-Ldlr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Pf4-Ldlr.xlsx
@@ -537,22 +537,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.2808873333333333</v>
+        <v>0.907169</v>
       </c>
       <c r="H2">
-        <v>0.842662</v>
+        <v>2.721507</v>
       </c>
       <c r="I2">
-        <v>0.001177722312619665</v>
+        <v>0.001369063862079057</v>
       </c>
       <c r="J2">
-        <v>0.001177722312619665</v>
+        <v>0.001369063862079057</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.298645666666667</v>
+        <v>3.716246</v>
       </c>
       <c r="N2">
-        <v>3.895937</v>
+        <v>11.148738</v>
       </c>
       <c r="O2">
-        <v>0.0230947416276088</v>
+        <v>0.05360372529499666</v>
       </c>
       <c r="P2">
-        <v>0.0230947416276088</v>
+        <v>0.05360372529499667</v>
       </c>
       <c r="Q2">
-        <v>0.3647731182548889</v>
+        <v>3.371263167574</v>
       </c>
       <c r="R2">
-        <v>3.282958064294001</v>
+        <v>30.341368508166</v>
       </c>
       <c r="S2">
-        <v>2.719919251902109E-05</v>
+        <v>7.338692317419298E-05</v>
       </c>
       <c r="T2">
-        <v>2.719919251902109E-05</v>
+        <v>7.338692317419299E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,22 +599,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.2808873333333333</v>
+        <v>0.907169</v>
       </c>
       <c r="H3">
-        <v>0.842662</v>
+        <v>2.721507</v>
       </c>
       <c r="I3">
-        <v>0.001177722312619665</v>
+        <v>0.001369063862079057</v>
       </c>
       <c r="J3">
-        <v>0.001177722312619665</v>
+        <v>0.001369063862079057</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>57.348682</v>
       </c>
       <c r="O3">
-        <v>0.3399574976376413</v>
+        <v>0.2757355133790138</v>
       </c>
       <c r="P3">
-        <v>0.3399574976376413</v>
+        <v>0.2757355133790139</v>
       </c>
       <c r="Q3">
-        <v>5.369506119053778</v>
+        <v>17.34164883375267</v>
       </c>
       <c r="R3">
-        <v>48.325555071484</v>
+        <v>156.074839503774</v>
       </c>
       <c r="S3">
-        <v>0.0004003755303101973</v>
+        <v>0.0003774995268590242</v>
       </c>
       <c r="T3">
-        <v>0.0004003755303101973</v>
+        <v>0.0003774995268590243</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,22 +661,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.2808873333333333</v>
+        <v>0.907169</v>
       </c>
       <c r="H4">
-        <v>0.842662</v>
+        <v>2.721507</v>
       </c>
       <c r="I4">
-        <v>0.001177722312619665</v>
+        <v>0.001369063862079057</v>
       </c>
       <c r="J4">
-        <v>0.001177722312619665</v>
+        <v>0.001369063862079057</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>17.81123966666667</v>
+        <v>30.325168</v>
       </c>
       <c r="N4">
-        <v>53.433719</v>
+        <v>90.975504</v>
       </c>
       <c r="O4">
-        <v>0.3167499717031489</v>
+        <v>0.4374150621343752</v>
       </c>
       <c r="P4">
-        <v>0.3167499717031489</v>
+        <v>0.4374150621343752</v>
       </c>
       <c r="Q4">
-        <v>5.002951613330889</v>
+        <v>27.510052329392</v>
       </c>
       <c r="R4">
-        <v>45.026564519978</v>
+        <v>247.590470964528</v>
       </c>
       <c r="S4">
-        <v>0.0003730435091964461</v>
+        <v>0.0005988491542972385</v>
       </c>
       <c r="T4">
-        <v>0.0003730435091964461</v>
+        <v>0.0005988491542972385</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,22 +723,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.2808873333333333</v>
+        <v>0.907169</v>
       </c>
       <c r="H5">
-        <v>0.842662</v>
+        <v>2.721507</v>
       </c>
       <c r="I5">
-        <v>0.001177722312619665</v>
+        <v>0.001369063862079057</v>
       </c>
       <c r="J5">
-        <v>0.001177722312619665</v>
+        <v>0.001369063862079057</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.093286666666667</v>
+        <v>6.927979666666666</v>
       </c>
       <c r="N5">
-        <v>12.27986</v>
+        <v>20.783939</v>
       </c>
       <c r="O5">
-        <v>0.0727938346855219</v>
+        <v>0.09993028419036913</v>
       </c>
       <c r="P5">
-        <v>0.0727938346855219</v>
+        <v>0.09993028419036913</v>
       </c>
       <c r="Q5">
-        <v>1.149752376368889</v>
+        <v>6.284848386230333</v>
       </c>
       <c r="R5">
-        <v>10.34777138732</v>
+        <v>56.563635476073</v>
       </c>
       <c r="S5">
-        <v>8.573092333028646E-05</v>
+        <v>0.0001368109408123245</v>
       </c>
       <c r="T5">
-        <v>8.573092333028646E-05</v>
+        <v>0.0001368109408123245</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,22 +785,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.2808873333333333</v>
+        <v>0.907169</v>
       </c>
       <c r="H6">
-        <v>0.842662</v>
+        <v>2.721507</v>
       </c>
       <c r="I6">
-        <v>0.001177722312619665</v>
+        <v>0.001369063862079057</v>
       </c>
       <c r="J6">
-        <v>0.001177722312619665</v>
+        <v>0.001369063862079057</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.724147666666667</v>
+        <v>2.05464</v>
       </c>
       <c r="N6">
-        <v>8.172442999999999</v>
+        <v>6.16392</v>
       </c>
       <c r="O6">
-        <v>0.04844545986019796</v>
+        <v>0.02963645521316725</v>
       </c>
       <c r="P6">
-        <v>0.04844545986019796</v>
+        <v>0.02963645521316725</v>
       </c>
       <c r="Q6">
-        <v>0.7651785736962222</v>
+        <v>1.86390571416</v>
       </c>
       <c r="R6">
-        <v>6.886607163266</v>
+        <v>16.77515142744</v>
       </c>
       <c r="S6">
-        <v>5.705529902247552E-05</v>
+        <v>4.057419983247177E-05</v>
       </c>
       <c r="T6">
-        <v>5.705529902247552E-05</v>
+        <v>4.057419983247177E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,22 +847,22 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.2808873333333333</v>
+        <v>0.907169</v>
       </c>
       <c r="H7">
-        <v>0.842662</v>
+        <v>2.721507</v>
       </c>
       <c r="I7">
-        <v>0.001177722312619665</v>
+        <v>0.001369063862079057</v>
       </c>
       <c r="J7">
-        <v>0.001177722312619665</v>
+        <v>0.001369063862079057</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>11.18768033333333</v>
+        <v>7.187868333333334</v>
       </c>
       <c r="N7">
-        <v>33.563041</v>
+        <v>21.563605</v>
       </c>
       <c r="O7">
-        <v>0.1989584944858812</v>
+        <v>0.103678959788078</v>
       </c>
       <c r="P7">
-        <v>0.1989584944858812</v>
+        <v>0.103678959788078</v>
       </c>
       <c r="Q7">
-        <v>3.142477695015777</v>
+        <v>6.520611328081667</v>
       </c>
       <c r="R7">
-        <v>28.282299255142</v>
+        <v>58.685501952735</v>
       </c>
       <c r="S7">
-        <v>0.000234317858241239</v>
+        <v>0.0001419431171038053</v>
       </c>
       <c r="T7">
-        <v>0.000234317858241239</v>
+        <v>0.0001419431171038053</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>5.647565</v>
       </c>
       <c r="I8">
-        <v>0.007893156820255192</v>
+        <v>0.002841027838709403</v>
       </c>
       <c r="J8">
-        <v>0.007893156820255192</v>
+        <v>0.002841027838709403</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.298645666666667</v>
+        <v>3.716246</v>
       </c>
       <c r="N8">
-        <v>3.895937</v>
+        <v>11.148738</v>
       </c>
       <c r="O8">
-        <v>0.0230947416276088</v>
+        <v>0.05360372529499666</v>
       </c>
       <c r="P8">
-        <v>0.0230947416276088</v>
+        <v>0.05360372529499667</v>
       </c>
       <c r="Q8">
-        <v>2.444728604822778</v>
+        <v>6.995913613663334</v>
       </c>
       <c r="R8">
-        <v>22.002557443405</v>
+        <v>62.96322252297001</v>
       </c>
       <c r="S8">
-        <v>0.0001822904173899919</v>
+        <v>0.0001522896758216169</v>
       </c>
       <c r="T8">
-        <v>0.0001822904173899919</v>
+        <v>0.0001522896758216169</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>5.647565</v>
       </c>
       <c r="I9">
-        <v>0.007893156820255192</v>
+        <v>0.002841027838709403</v>
       </c>
       <c r="J9">
-        <v>0.007893156820255192</v>
+        <v>0.002841027838709403</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>57.348682</v>
       </c>
       <c r="O9">
-        <v>0.3399574976376413</v>
+        <v>0.2757355133790138</v>
       </c>
       <c r="P9">
-        <v>0.3399574976376413</v>
+        <v>0.2757355133790139</v>
       </c>
       <c r="Q9">
         <v>35.98671213992556</v>
@@ -1013,10 +1013,10 @@
         <v>323.88040925933</v>
       </c>
       <c r="S9">
-        <v>0.002683337841075436</v>
+        <v>0.0007833722696306072</v>
       </c>
       <c r="T9">
-        <v>0.002683337841075436</v>
+        <v>0.0007833722696306074</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>5.647565</v>
       </c>
       <c r="I10">
-        <v>0.007893156820255192</v>
+        <v>0.002841027838709403</v>
       </c>
       <c r="J10">
-        <v>0.007893156820255192</v>
+        <v>0.002841027838709403</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>17.81123966666667</v>
+        <v>30.325168</v>
       </c>
       <c r="N10">
-        <v>53.433719</v>
+        <v>90.975504</v>
       </c>
       <c r="O10">
-        <v>0.3167499717031489</v>
+        <v>0.4374150621343752</v>
       </c>
       <c r="P10">
-        <v>0.3167499717031489</v>
+        <v>0.4374150621343752</v>
       </c>
       <c r="Q10">
-        <v>33.53004458269277</v>
+        <v>57.08778580530667</v>
       </c>
       <c r="R10">
-        <v>301.770401244235</v>
+        <v>513.79007224776</v>
       </c>
       <c r="S10">
-        <v>0.002500157199464349</v>
+        <v>0.001242708368594563</v>
       </c>
       <c r="T10">
-        <v>0.002500157199464349</v>
+        <v>0.001242708368594563</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>5.647565</v>
       </c>
       <c r="I11">
-        <v>0.007893156820255192</v>
+        <v>0.002841027838709403</v>
       </c>
       <c r="J11">
-        <v>0.007893156820255192</v>
+        <v>0.002841027838709403</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.093286666666667</v>
+        <v>6.927979666666666</v>
       </c>
       <c r="N11">
-        <v>12.27986</v>
+        <v>20.783939</v>
       </c>
       <c r="O11">
-        <v>0.0727938346855219</v>
+        <v>0.09993028419036913</v>
       </c>
       <c r="P11">
-        <v>0.0727938346855219</v>
+        <v>0.09993028419036913</v>
       </c>
       <c r="Q11">
-        <v>7.705700837877778</v>
+        <v>13.04207182872611</v>
       </c>
       <c r="R11">
-        <v>69.35130754090001</v>
+        <v>117.378646458535</v>
       </c>
       <c r="S11">
-        <v>0.0005745731527205561</v>
+        <v>0.0002839047193149808</v>
       </c>
       <c r="T11">
-        <v>0.0005745731527205561</v>
+        <v>0.0002839047193149808</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>5.647565</v>
       </c>
       <c r="I12">
-        <v>0.007893156820255192</v>
+        <v>0.002841027838709403</v>
       </c>
       <c r="J12">
-        <v>0.007893156820255192</v>
+        <v>0.002841027838709403</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.724147666666667</v>
+        <v>2.05464</v>
       </c>
       <c r="N12">
-        <v>8.172442999999999</v>
+        <v>6.16392</v>
       </c>
       <c r="O12">
-        <v>0.04844545986019796</v>
+        <v>0.02963645521316725</v>
       </c>
       <c r="P12">
-        <v>0.04844545986019796</v>
+        <v>0.02963645521316725</v>
       </c>
       <c r="Q12">
-        <v>5.128267005699445</v>
+        <v>3.8679043172</v>
       </c>
       <c r="R12">
-        <v>46.154403051295</v>
+        <v>34.8111388548</v>
       </c>
       <c r="S12">
-        <v>0.0003823876119059207</v>
+        <v>8.419799430127256E-05</v>
       </c>
       <c r="T12">
-        <v>0.0003823876119059207</v>
+        <v>8.419799430127258E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>5.647565</v>
       </c>
       <c r="I13">
-        <v>0.007893156820255192</v>
+        <v>0.002841027838709403</v>
       </c>
       <c r="J13">
-        <v>0.007893156820255192</v>
+        <v>0.002841027838709403</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>11.18768033333333</v>
+        <v>7.187868333333334</v>
       </c>
       <c r="N13">
-        <v>33.563041</v>
+        <v>21.563605</v>
       </c>
       <c r="O13">
-        <v>0.1989584944858812</v>
+        <v>0.103678959788078</v>
       </c>
       <c r="P13">
-        <v>0.1989584944858812</v>
+        <v>0.103678959788078</v>
       </c>
       <c r="Q13">
-        <v>21.06105062724055</v>
+        <v>13.53131787464722</v>
       </c>
       <c r="R13">
-        <v>189.549455645165</v>
+        <v>121.781860871825</v>
       </c>
       <c r="S13">
-        <v>0.001570410597698938</v>
+        <v>0.0002945548110463622</v>
       </c>
       <c r="T13">
-        <v>0.001570410597698938</v>
+        <v>0.0002945548110463622</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>103.833693</v>
+        <v>84.26343166666668</v>
       </c>
       <c r="H14">
-        <v>311.501079</v>
+        <v>252.790295</v>
       </c>
       <c r="I14">
-        <v>0.435360525505364</v>
+        <v>0.1271670650006795</v>
       </c>
       <c r="J14">
-        <v>0.4353605255053641</v>
+        <v>0.1271670650006795</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.298645666666667</v>
+        <v>3.716246</v>
       </c>
       <c r="N14">
-        <v>3.895937</v>
+        <v>11.148738</v>
       </c>
       <c r="O14">
-        <v>0.0230947416276088</v>
+        <v>0.05360372529499666</v>
       </c>
       <c r="P14">
-        <v>0.0230947416276088</v>
+        <v>0.05360372529499667</v>
       </c>
       <c r="Q14">
-        <v>134.843175468447</v>
+        <v>313.1436408775234</v>
       </c>
       <c r="R14">
-        <v>1213.588579216023</v>
+        <v>2818.292767897711</v>
       </c>
       <c r="S14">
-        <v>0.01005453885140637</v>
+        <v>0.006816628418867408</v>
       </c>
       <c r="T14">
-        <v>0.01005453885140637</v>
+        <v>0.006816628418867409</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>103.833693</v>
+        <v>84.26343166666668</v>
       </c>
       <c r="H15">
-        <v>311.501079</v>
+        <v>252.790295</v>
       </c>
       <c r="I15">
-        <v>0.435360525505364</v>
+        <v>0.1271670650006795</v>
       </c>
       <c r="J15">
-        <v>0.4353605255053641</v>
+        <v>0.1271670650006795</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>57.348682</v>
       </c>
       <c r="O15">
-        <v>0.3399574976376413</v>
+        <v>0.2757355133790138</v>
       </c>
       <c r="P15">
-        <v>0.3399574976376413</v>
+        <v>0.2757355133790139</v>
       </c>
       <c r="Q15">
-        <v>1984.908480247542</v>
+        <v>1610.798915626799</v>
       </c>
       <c r="R15">
-        <v>17864.17632222788</v>
+        <v>14497.19024064119</v>
       </c>
       <c r="S15">
-        <v>0.148004074821012</v>
+        <v>0.03506447595286478</v>
       </c>
       <c r="T15">
-        <v>0.1480040748210121</v>
+        <v>0.03506447595286478</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>103.833693</v>
+        <v>84.26343166666668</v>
       </c>
       <c r="H16">
-        <v>311.501079</v>
+        <v>252.790295</v>
       </c>
       <c r="I16">
-        <v>0.435360525505364</v>
+        <v>0.1271670650006795</v>
       </c>
       <c r="J16">
-        <v>0.4353605255053641</v>
+        <v>0.1271670650006795</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>17.81123966666667</v>
+        <v>30.325168</v>
       </c>
       <c r="N16">
-        <v>53.433719</v>
+        <v>90.975504</v>
       </c>
       <c r="O16">
-        <v>0.3167499717031489</v>
+        <v>0.4374150621343752</v>
       </c>
       <c r="P16">
-        <v>0.3167499717031489</v>
+        <v>0.4374150621343752</v>
       </c>
       <c r="Q16">
-        <v>1849.406791498089</v>
+        <v>2555.302721548187</v>
       </c>
       <c r="R16">
-        <v>16644.6611234828</v>
+        <v>22997.72449393368</v>
       </c>
       <c r="S16">
-        <v>0.1379004341344921</v>
+        <v>0.05562478963871834</v>
       </c>
       <c r="T16">
-        <v>0.1379004341344921</v>
+        <v>0.05562478963871834</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>103.833693</v>
+        <v>84.26343166666668</v>
       </c>
       <c r="H17">
-        <v>311.501079</v>
+        <v>252.790295</v>
       </c>
       <c r="I17">
-        <v>0.435360525505364</v>
+        <v>0.1271670650006795</v>
       </c>
       <c r="J17">
-        <v>0.4353605255053641</v>
+        <v>0.1271670650006795</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.093286666666667</v>
+        <v>6.927979666666666</v>
       </c>
       <c r="N17">
-        <v>12.27986</v>
+        <v>20.783939</v>
       </c>
       <c r="O17">
-        <v>0.0727938346855219</v>
+        <v>0.09993028419036913</v>
       </c>
       <c r="P17">
-        <v>0.0727938346855219</v>
+        <v>0.09993028419036913</v>
       </c>
       <c r="Q17">
-        <v>425.02107110766</v>
+        <v>583.7753412302228</v>
       </c>
       <c r="R17">
-        <v>3825.18963996894</v>
+        <v>5253.978071072005</v>
       </c>
       <c r="S17">
-        <v>0.03169156212223941</v>
+        <v>0.01270784094517304</v>
       </c>
       <c r="T17">
-        <v>0.03169156212223941</v>
+        <v>0.01270784094517304</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>103.833693</v>
+        <v>84.26343166666668</v>
       </c>
       <c r="H18">
-        <v>311.501079</v>
+        <v>252.790295</v>
       </c>
       <c r="I18">
-        <v>0.435360525505364</v>
+        <v>0.1271670650006795</v>
       </c>
       <c r="J18">
-        <v>0.4353605255053641</v>
+        <v>0.1271670650006795</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.724147666666667</v>
+        <v>2.05464</v>
       </c>
       <c r="N18">
-        <v>8.172442999999999</v>
+        <v>6.16392</v>
       </c>
       <c r="O18">
-        <v>0.04844545986019796</v>
+        <v>0.02963645521316725</v>
       </c>
       <c r="P18">
-        <v>0.04844545986019796</v>
+        <v>0.02963645521316725</v>
       </c>
       <c r="Q18">
-        <v>282.858312507333</v>
+        <v>173.1310172396</v>
       </c>
       <c r="R18">
-        <v>2545.724812565997</v>
+        <v>1558.1791551564</v>
       </c>
       <c r="S18">
-        <v>0.02109124086308481</v>
+        <v>0.003768781026482566</v>
       </c>
       <c r="T18">
-        <v>0.02109124086308481</v>
+        <v>0.003768781026482566</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>103.833693</v>
+        <v>84.26343166666668</v>
       </c>
       <c r="H19">
-        <v>311.501079</v>
+        <v>252.790295</v>
       </c>
       <c r="I19">
-        <v>0.435360525505364</v>
+        <v>0.1271670650006795</v>
       </c>
       <c r="J19">
-        <v>0.4353605255053641</v>
+        <v>0.1271670650006795</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>11.18768033333333</v>
+        <v>7.187868333333334</v>
       </c>
       <c r="N19">
-        <v>33.563041</v>
+        <v>21.563605</v>
       </c>
       <c r="O19">
-        <v>0.1989584944858812</v>
+        <v>0.103678959788078</v>
       </c>
       <c r="P19">
-        <v>0.1989584944858812</v>
+        <v>0.103678959788078</v>
       </c>
       <c r="Q19">
-        <v>1161.658165113471</v>
+        <v>605.6744521348307</v>
       </c>
       <c r="R19">
-        <v>10454.92348602124</v>
+        <v>5451.070069213476</v>
       </c>
       <c r="S19">
-        <v>0.08661867471312933</v>
+        <v>0.01318454901857334</v>
       </c>
       <c r="T19">
-        <v>0.08661867471312933</v>
+        <v>0.01318454901857334</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,22 +1653,22 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>0.1385096666666667</v>
+        <v>0.244783</v>
       </c>
       <c r="H20">
-        <v>0.415529</v>
+        <v>0.7343489999999999</v>
       </c>
       <c r="I20">
-        <v>0.0005807521578527772</v>
+        <v>0.0003694168995537743</v>
       </c>
       <c r="J20">
-        <v>0.0005807521578527772</v>
+        <v>0.0003694168995537743</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.298645666666667</v>
+        <v>3.716246</v>
       </c>
       <c r="N20">
-        <v>3.895937</v>
+        <v>11.148738</v>
       </c>
       <c r="O20">
-        <v>0.0230947416276088</v>
+        <v>0.05360372529499666</v>
       </c>
       <c r="P20">
-        <v>0.0230947416276088</v>
+        <v>0.05360372529499667</v>
       </c>
       <c r="Q20">
-        <v>0.1798749784081111</v>
+        <v>0.9096738446179999</v>
       </c>
       <c r="R20">
-        <v>1.618874805673</v>
+        <v>8.187064601562</v>
       </c>
       <c r="S20">
-        <v>1.341232103528617E-05</v>
+        <v>1.980212200300989E-05</v>
       </c>
       <c r="T20">
-        <v>1.341232103528617E-05</v>
+        <v>1.980212200300989E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,22 +1715,22 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>0.1385096666666667</v>
+        <v>0.244783</v>
       </c>
       <c r="H21">
-        <v>0.415529</v>
+        <v>0.7343489999999999</v>
       </c>
       <c r="I21">
-        <v>0.0005807521578527772</v>
+        <v>0.0003694168995537743</v>
       </c>
       <c r="J21">
-        <v>0.0005807521578527772</v>
+        <v>0.0003694168995537743</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>57.348682</v>
       </c>
       <c r="O21">
-        <v>0.3399574976376413</v>
+        <v>0.2757355133790138</v>
       </c>
       <c r="P21">
-        <v>0.3399574976376413</v>
+        <v>0.2757355133790139</v>
       </c>
       <c r="Q21">
-        <v>2.647782275864222</v>
+        <v>4.679327475335334</v>
       </c>
       <c r="R21">
-        <v>23.830040482778</v>
+        <v>42.113947278018</v>
       </c>
       <c r="S21">
-        <v>0.0001974310503312906</v>
+        <v>0.0001018613584493435</v>
       </c>
       <c r="T21">
-        <v>0.0001974310503312906</v>
+        <v>0.0001018613584493435</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,22 +1777,22 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>0.1385096666666667</v>
+        <v>0.244783</v>
       </c>
       <c r="H22">
-        <v>0.415529</v>
+        <v>0.7343489999999999</v>
       </c>
       <c r="I22">
-        <v>0.0005807521578527772</v>
+        <v>0.0003694168995537743</v>
       </c>
       <c r="J22">
-        <v>0.0005807521578527772</v>
+        <v>0.0003694168995537743</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>17.81123966666667</v>
+        <v>30.325168</v>
       </c>
       <c r="N22">
-        <v>53.433719</v>
+        <v>90.975504</v>
       </c>
       <c r="O22">
-        <v>0.3167499717031489</v>
+        <v>0.4374150621343752</v>
       </c>
       <c r="P22">
-        <v>0.3167499717031489</v>
+        <v>0.4374150621343752</v>
       </c>
       <c r="Q22">
-        <v>2.467028869150111</v>
+        <v>7.423085598544</v>
       </c>
       <c r="R22">
-        <v>22.203259822351</v>
+        <v>66.807770386896</v>
       </c>
       <c r="S22">
-        <v>0.0001839532295664098</v>
+        <v>0.0001615885160718024</v>
       </c>
       <c r="T22">
-        <v>0.0001839532295664098</v>
+        <v>0.0001615885160718024</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,22 +1839,22 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>0.1385096666666667</v>
+        <v>0.244783</v>
       </c>
       <c r="H23">
-        <v>0.415529</v>
+        <v>0.7343489999999999</v>
       </c>
       <c r="I23">
-        <v>0.0005807521578527772</v>
+        <v>0.0003694168995537743</v>
       </c>
       <c r="J23">
-        <v>0.0005807521578527772</v>
+        <v>0.0003694168995537743</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>4.093286666666667</v>
+        <v>6.927979666666666</v>
       </c>
       <c r="N23">
-        <v>12.27986</v>
+        <v>20.783939</v>
       </c>
       <c r="O23">
-        <v>0.0727938346855219</v>
+        <v>0.09993028419036913</v>
       </c>
       <c r="P23">
-        <v>0.0727938346855219</v>
+        <v>0.09993028419036913</v>
       </c>
       <c r="Q23">
-        <v>0.5669597717711111</v>
+        <v>1.695851646745666</v>
       </c>
       <c r="R23">
-        <v>5.102637945940001</v>
+        <v>15.262664820711</v>
       </c>
       <c r="S23">
-        <v>4.227517657199519E-05</v>
+        <v>3.691593575713371E-05</v>
       </c>
       <c r="T23">
-        <v>4.227517657199519E-05</v>
+        <v>3.691593575713371E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,22 +1901,22 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>0.1385096666666667</v>
+        <v>0.244783</v>
       </c>
       <c r="H24">
-        <v>0.415529</v>
+        <v>0.7343489999999999</v>
       </c>
       <c r="I24">
-        <v>0.0005807521578527772</v>
+        <v>0.0003694168995537743</v>
       </c>
       <c r="J24">
-        <v>0.0005807521578527772</v>
+        <v>0.0003694168995537743</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>2.724147666666667</v>
+        <v>2.05464</v>
       </c>
       <c r="N24">
-        <v>8.172442999999999</v>
+        <v>6.16392</v>
       </c>
       <c r="O24">
-        <v>0.04844545986019796</v>
+        <v>0.02963645521316725</v>
       </c>
       <c r="P24">
-        <v>0.04844545986019796</v>
+        <v>0.02963645521316725</v>
       </c>
       <c r="Q24">
-        <v>0.3773207852607778</v>
+        <v>0.5029409431199999</v>
       </c>
       <c r="R24">
-        <v>3.395887067347</v>
+        <v>4.52646848808</v>
       </c>
       <c r="S24">
-        <v>2.813480535198007E-05</v>
+        <v>1.094820739861253E-05</v>
       </c>
       <c r="T24">
-        <v>2.813480535198007E-05</v>
+        <v>1.094820739861253E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,22 +1963,22 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G25">
-        <v>0.1385096666666667</v>
+        <v>0.244783</v>
       </c>
       <c r="H25">
-        <v>0.415529</v>
+        <v>0.7343489999999999</v>
       </c>
       <c r="I25">
-        <v>0.0005807521578527772</v>
+        <v>0.0003694168995537743</v>
       </c>
       <c r="J25">
-        <v>0.0005807521578527772</v>
+        <v>0.0003694168995537743</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>11.18768033333333</v>
+        <v>7.187868333333334</v>
       </c>
       <c r="N25">
-        <v>33.563041</v>
+        <v>21.563605</v>
       </c>
       <c r="O25">
-        <v>0.1989584944858812</v>
+        <v>0.103678959788078</v>
       </c>
       <c r="P25">
-        <v>0.1989584944858812</v>
+        <v>0.103678959788078</v>
       </c>
       <c r="Q25">
-        <v>1.549601873743222</v>
+        <v>1.759467974238333</v>
       </c>
       <c r="R25">
-        <v>13.946416863689</v>
+        <v>15.835211768145</v>
       </c>
       <c r="S25">
-        <v>0.0001155455749958154</v>
+        <v>3.830075987387219E-05</v>
       </c>
       <c r="T25">
-        <v>0.0001155455749958154</v>
+        <v>3.830075987387219E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>68.65562933333334</v>
+        <v>62.79827133333333</v>
       </c>
       <c r="H26">
-        <v>205.966888</v>
+        <v>188.394814</v>
       </c>
       <c r="I26">
-        <v>0.2878636982069153</v>
+        <v>0.09477268720988248</v>
       </c>
       <c r="J26">
-        <v>0.2878636982069153</v>
+        <v>0.09477268720988248</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.298645666666667</v>
+        <v>3.716246</v>
       </c>
       <c r="N26">
-        <v>3.895937</v>
+        <v>11.148738</v>
       </c>
       <c r="O26">
-        <v>0.0230947416276088</v>
+        <v>0.05360372529499666</v>
       </c>
       <c r="P26">
-        <v>0.0230947416276088</v>
+        <v>0.05360372529499667</v>
       </c>
       <c r="Q26">
-        <v>89.15933552600623</v>
+        <v>233.3738246494147</v>
       </c>
       <c r="R26">
-        <v>802.4340197340562</v>
+        <v>2100.364421844732</v>
       </c>
       <c r="S26">
-        <v>0.006648137734056662</v>
+        <v>0.005080169090667185</v>
       </c>
       <c r="T26">
-        <v>0.006648137734056662</v>
+        <v>0.005080169090667185</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>68.65562933333334</v>
+        <v>62.79827133333333</v>
       </c>
       <c r="H27">
-        <v>205.966888</v>
+        <v>188.394814</v>
       </c>
       <c r="I27">
-        <v>0.2878636982069153</v>
+        <v>0.09477268720988248</v>
       </c>
       <c r="J27">
-        <v>0.2878636982069153</v>
+        <v>0.09477268720988248</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>57.348682</v>
       </c>
       <c r="O27">
-        <v>0.3399574976376413</v>
+        <v>0.2757355133790138</v>
       </c>
       <c r="P27">
-        <v>0.3399574976376413</v>
+        <v>0.2757355133790139</v>
       </c>
       <c r="Q27">
-        <v>1312.436618049069</v>
+        <v>1200.46603094835</v>
       </c>
       <c r="R27">
-        <v>11811.92956244162</v>
+        <v>10804.19427853515</v>
       </c>
       <c r="S27">
-        <v>0.09786142250314007</v>
+        <v>0.02613219556212564</v>
       </c>
       <c r="T27">
-        <v>0.09786142250314007</v>
+        <v>0.02613219556212565</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>68.65562933333334</v>
+        <v>62.79827133333333</v>
       </c>
       <c r="H28">
-        <v>205.966888</v>
+        <v>188.394814</v>
       </c>
       <c r="I28">
-        <v>0.2878636982069153</v>
+        <v>0.09477268720988248</v>
       </c>
       <c r="J28">
-        <v>0.2878636982069153</v>
+        <v>0.09477268720988248</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>17.81123966666667</v>
+        <v>30.325168</v>
       </c>
       <c r="N28">
-        <v>53.433719</v>
+        <v>90.975504</v>
       </c>
       <c r="O28">
-        <v>0.3167499717031489</v>
+        <v>0.4374150621343752</v>
       </c>
       <c r="P28">
-        <v>0.3167499717031489</v>
+        <v>0.4374150621343752</v>
       </c>
       <c r="Q28">
-        <v>1222.84186852183</v>
+        <v>1904.368128292917</v>
       </c>
       <c r="R28">
-        <v>11005.57681669647</v>
+        <v>17139.31315463626</v>
       </c>
       <c r="S28">
-        <v>0.0911808182614042</v>
+        <v>0.04145500086455245</v>
       </c>
       <c r="T28">
-        <v>0.0911808182614042</v>
+        <v>0.04145500086455245</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>68.65562933333334</v>
+        <v>62.79827133333333</v>
       </c>
       <c r="H29">
-        <v>205.966888</v>
+        <v>188.394814</v>
       </c>
       <c r="I29">
-        <v>0.2878636982069153</v>
+        <v>0.09477268720988248</v>
       </c>
       <c r="J29">
-        <v>0.2878636982069153</v>
+        <v>0.09477268720988248</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>4.093286666666667</v>
+        <v>6.927979666666666</v>
       </c>
       <c r="N29">
-        <v>12.27986</v>
+        <v>20.783939</v>
       </c>
       <c r="O29">
-        <v>0.0727938346855219</v>
+        <v>0.09993028419036913</v>
       </c>
       <c r="P29">
-        <v>0.0727938346855219</v>
+        <v>0.09993028419036913</v>
       </c>
       <c r="Q29">
-        <v>281.0271721417423</v>
+        <v>435.0651468991495</v>
       </c>
       <c r="R29">
-        <v>2529.244549275681</v>
+        <v>3915.586322092346</v>
       </c>
       <c r="S29">
-        <v>0.02095470245923716</v>
+        <v>0.009470661566368518</v>
       </c>
       <c r="T29">
-        <v>0.02095470245923716</v>
+        <v>0.009470661566368518</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>68.65562933333334</v>
+        <v>62.79827133333333</v>
       </c>
       <c r="H30">
-        <v>205.966888</v>
+        <v>188.394814</v>
       </c>
       <c r="I30">
-        <v>0.2878636982069153</v>
+        <v>0.09477268720988248</v>
       </c>
       <c r="J30">
-        <v>0.2878636982069153</v>
+        <v>0.09477268720988248</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>2.724147666666667</v>
+        <v>2.05464</v>
       </c>
       <c r="N30">
-        <v>8.172442999999999</v>
+        <v>6.16392</v>
       </c>
       <c r="O30">
-        <v>0.04844545986019796</v>
+        <v>0.02963645521316725</v>
       </c>
       <c r="P30">
-        <v>0.04844545986019796</v>
+        <v>0.02963645521316725</v>
       </c>
       <c r="Q30">
-        <v>187.0280724519316</v>
+        <v>129.02784021232</v>
       </c>
       <c r="R30">
-        <v>1683.252652067384</v>
+        <v>1161.25056191088</v>
       </c>
       <c r="S30">
-        <v>0.01394568923669125</v>
+        <v>0.002808726499927191</v>
       </c>
       <c r="T30">
-        <v>0.01394568923669125</v>
+        <v>0.002808726499927191</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>68.65562933333334</v>
+        <v>62.79827133333333</v>
       </c>
       <c r="H31">
-        <v>205.966888</v>
+        <v>188.394814</v>
       </c>
       <c r="I31">
-        <v>0.2878636982069153</v>
+        <v>0.09477268720988248</v>
       </c>
       <c r="J31">
-        <v>0.2878636982069153</v>
+        <v>0.09477268720988248</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>11.18768033333333</v>
+        <v>7.187868333333334</v>
       </c>
       <c r="N31">
-        <v>33.563041</v>
+        <v>21.563605</v>
       </c>
       <c r="O31">
-        <v>0.1989584944858812</v>
+        <v>0.103678959788078</v>
       </c>
       <c r="P31">
-        <v>0.1989584944858812</v>
+        <v>0.103678959788078</v>
       </c>
       <c r="Q31">
-        <v>768.0972340651565</v>
+        <v>451.3857059049412</v>
       </c>
       <c r="R31">
-        <v>6912.875106586408</v>
+        <v>4062.47135314447</v>
       </c>
       <c r="S31">
-        <v>0.05727292801238593</v>
+        <v>0.009825933626241495</v>
       </c>
       <c r="T31">
-        <v>0.05727292801238593</v>
+        <v>0.009825933626241495</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>63.709236</v>
+        <v>512.5237530000001</v>
       </c>
       <c r="H32">
-        <v>191.127708</v>
+        <v>1537.571259</v>
       </c>
       <c r="I32">
-        <v>0.267124144996993</v>
+        <v>0.7734807391890958</v>
       </c>
       <c r="J32">
-        <v>0.2671241449969931</v>
+        <v>0.7734807391890958</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>1.298645666666667</v>
+        <v>3.716246</v>
       </c>
       <c r="N32">
-        <v>3.895937</v>
+        <v>11.148738</v>
       </c>
       <c r="O32">
-        <v>0.0230947416276088</v>
+        <v>0.05360372529499666</v>
       </c>
       <c r="P32">
-        <v>0.0230947416276088</v>
+        <v>0.05360372529499667</v>
       </c>
       <c r="Q32">
-        <v>82.73572325804402</v>
+        <v>1904.664346991239</v>
       </c>
       <c r="R32">
-        <v>744.6215093223962</v>
+        <v>17141.97912292114</v>
       </c>
       <c r="S32">
-        <v>0.006169163111201462</v>
+        <v>0.04146144906446325</v>
       </c>
       <c r="T32">
-        <v>0.006169163111201464</v>
+        <v>0.04146144906446326</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>63.709236</v>
+        <v>512.5237530000001</v>
       </c>
       <c r="H33">
-        <v>191.127708</v>
+        <v>1537.571259</v>
       </c>
       <c r="I33">
-        <v>0.267124144996993</v>
+        <v>0.7734807391890958</v>
       </c>
       <c r="J33">
-        <v>0.2671241449969931</v>
+        <v>0.7734807391890958</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>57.348682</v>
       </c>
       <c r="O33">
-        <v>0.3399574976376413</v>
+        <v>0.2757355133790138</v>
       </c>
       <c r="P33">
-        <v>0.3399574976376413</v>
+        <v>0.2757355133790139</v>
       </c>
       <c r="Q33">
-        <v>1217.880238608984</v>
+        <v>9797.520576081184</v>
       </c>
       <c r="R33">
-        <v>10960.92214748086</v>
+        <v>88177.68518473065</v>
       </c>
       <c r="S33">
-        <v>0.09081085589177219</v>
+        <v>0.2132761087090844</v>
       </c>
       <c r="T33">
-        <v>0.09081085589177221</v>
+        <v>0.2132761087090844</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>63.709236</v>
+        <v>512.5237530000001</v>
       </c>
       <c r="H34">
-        <v>191.127708</v>
+        <v>1537.571259</v>
       </c>
       <c r="I34">
-        <v>0.267124144996993</v>
+        <v>0.7734807391890958</v>
       </c>
       <c r="J34">
-        <v>0.2671241449969931</v>
+        <v>0.7734807391890958</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>17.81123966666667</v>
+        <v>30.325168</v>
       </c>
       <c r="N34">
-        <v>53.433719</v>
+        <v>90.975504</v>
       </c>
       <c r="O34">
-        <v>0.3167499717031489</v>
+        <v>0.4374150621343752</v>
       </c>
       <c r="P34">
-        <v>0.3167499717031489</v>
+        <v>0.4374150621343752</v>
       </c>
       <c r="Q34">
-        <v>1134.740471376228</v>
+        <v>15542.36891371551</v>
       </c>
       <c r="R34">
-        <v>10212.66424238605</v>
+        <v>139881.3202234395</v>
       </c>
       <c r="S34">
-        <v>0.08461156536902538</v>
+        <v>0.3383321255921408</v>
       </c>
       <c r="T34">
-        <v>0.08461156536902539</v>
+        <v>0.3383321255921408</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>63.709236</v>
+        <v>512.5237530000001</v>
       </c>
       <c r="H35">
-        <v>191.127708</v>
+        <v>1537.571259</v>
       </c>
       <c r="I35">
-        <v>0.267124144996993</v>
+        <v>0.7734807391890958</v>
       </c>
       <c r="J35">
-        <v>0.2671241449969931</v>
+        <v>0.7734807391890958</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>4.093286666666667</v>
+        <v>6.927979666666666</v>
       </c>
       <c r="N35">
-        <v>12.27986</v>
+        <v>20.783939</v>
       </c>
       <c r="O35">
-        <v>0.0727938346855219</v>
+        <v>0.09993028419036913</v>
       </c>
       <c r="P35">
-        <v>0.0727938346855219</v>
+        <v>0.09993028419036913</v>
       </c>
       <c r="Q35">
-        <v>260.78016626232</v>
+        <v>3550.754139467689</v>
       </c>
       <c r="R35">
-        <v>2347.021496360881</v>
+        <v>31956.7872552092</v>
       </c>
       <c r="S35">
-        <v>0.01944499085142249</v>
+        <v>0.07729415008294313</v>
       </c>
       <c r="T35">
-        <v>0.01944499085142249</v>
+        <v>0.07729415008294313</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>63.709236</v>
+        <v>512.5237530000001</v>
       </c>
       <c r="H36">
-        <v>191.127708</v>
+        <v>1537.571259</v>
       </c>
       <c r="I36">
-        <v>0.267124144996993</v>
+        <v>0.7734807391890958</v>
       </c>
       <c r="J36">
-        <v>0.2671241449969931</v>
+        <v>0.7734807391890958</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>2.724147666666667</v>
+        <v>2.05464</v>
       </c>
       <c r="N36">
-        <v>8.172442999999999</v>
+        <v>6.16392</v>
       </c>
       <c r="O36">
-        <v>0.04844545986019796</v>
+        <v>0.02963645521316725</v>
       </c>
       <c r="P36">
-        <v>0.04844545986019796</v>
+        <v>0.02963645521316725</v>
       </c>
       <c r="Q36">
-        <v>173.553366594516</v>
+        <v>1053.05180386392</v>
       </c>
       <c r="R36">
-        <v>1561.980299350644</v>
+        <v>9477.46623477528</v>
       </c>
       <c r="S36">
-        <v>0.01294095204414153</v>
+        <v>0.02292322728522514</v>
       </c>
       <c r="T36">
-        <v>0.01294095204414153</v>
+        <v>0.02292322728522514</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>63.709236</v>
+        <v>512.5237530000001</v>
       </c>
       <c r="H37">
-        <v>191.127708</v>
+        <v>1537.571259</v>
       </c>
       <c r="I37">
-        <v>0.267124144996993</v>
+        <v>0.7734807391890958</v>
       </c>
       <c r="J37">
-        <v>0.2671241449969931</v>
+        <v>0.7734807391890958</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>11.18768033333333</v>
+        <v>7.187868333333334</v>
       </c>
       <c r="N37">
-        <v>33.563041</v>
+        <v>21.563605</v>
       </c>
       <c r="O37">
-        <v>0.1989584944858812</v>
+        <v>0.103678959788078</v>
       </c>
       <c r="P37">
-        <v>0.1989584944858812</v>
+        <v>0.103678959788078</v>
       </c>
       <c r="Q37">
-        <v>712.758566648892</v>
+        <v>3683.953254269856</v>
       </c>
       <c r="R37">
-        <v>6414.827099840028</v>
+        <v>33155.5792884287</v>
       </c>
       <c r="S37">
-        <v>0.05314661772942997</v>
+        <v>0.08019367845523907</v>
       </c>
       <c r="T37">
-        <v>0.05314661772942997</v>
+        <v>0.08019367845523907</v>
       </c>
     </row>
   </sheetData>
